--- a/medicine/Mort/Décès_en_1911/Décès_en_1911.xlsx
+++ b/medicine/Mort/Décès_en_1911/Décès_en_1911.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -509,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +539,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>3 janvier : Jean Pierre François Lamorinière, peintre belge (° 20 avril 1828).
 11 janvier : Richard von Perger, chef d’orchestre, pédagogue et compositeur autrichien (° 10 janvier 1854).</t>
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 février : David Laksine, peintre et sculpteur  russe (° 1888).
 7 février :
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : Jacobus Henricus van 't Hoff, physicien et chimiste hollandais (prix Nobel de chimie 1901) (° 30 août 1852).
 2 mars : Louis-Alexandre Bouché, peintre français (° 10 janvier 1838).
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,7 +652,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>4 avril : Constantin Kryjitski, peintre russe (° 17 mai 1858).
 8 avril : Gaetano Esposito, peintre italien (° 17 novembre 1858).
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,7 +690,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>5 mai : Aristide Delannoy, peintre, dessinateur de presse et caricaturiste français (° 30 juillet 1874).
 11 mai : Frédéric Grasset, peintre français (° 30 janvier 1848).
@@ -685,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,7 +725,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2 juin : Axel Olof Freudenthal, professeur finlandais (° 12 décembre 1836).
 7 juin : Maximilien Strauch,  homme politique belge (° 4 octobre 1829).
@@ -719,7 +743,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -737,7 +761,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2 juillet : Felix Mottl, chef d'orchestre et compositeur autrichien (° 24 août 1856).
 15 juillet :
@@ -756,7 +782,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -774,7 +800,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>10 août : Josef Israëls, peintre néerlandais (° 27 janvier 1824).
 11 août : Charles Louis Gratia, peintre et pastelliste français (° 9 novembre 1815).
@@ -792,7 +820,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -810,7 +838,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>? septembre : Léopold Flameng, peintre, graveur et illustrateur français (° 22 novembre 1831).
 8 septembre : Jan Puzyna de Kosielsko, cardinal polonais, évêque de Cracovie (° 13 septembre 1842).
@@ -828,7 +858,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -846,7 +876,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>5 octobre : Charles Malherbe, violoniste, musicologue, compositeur et éditeur de musique français (° 21 avril 1853).
 11 octobre : Eugène Cauchois,peintre français (° 14 février 1850).
@@ -860,7 +892,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -878,7 +910,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>10 novembre : Félix Ziem, peintre français de l'École de Barbizon (° 25 février 1821).
 16 novembre : Max Zenger, compositeur allemand (° 2 février 1837).
@@ -895,7 +929,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -913,7 +947,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>6 décembre : Paul Destribaud, compositeur français (° 3 novembre 1831).
 8 décembre :
@@ -932,7 +968,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1911</t>
+          <t>Décès_en_1911</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -950,7 +986,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Auguste Emile Bellet, peintre français (° 2 avril 1856).
 Frédéric Samuel Cordey, peintre français (° 1854).
